--- a/branches/master/StructureDefinition-CrossBorderMedicationDispense.xlsx
+++ b/branches/master/StructureDefinition-CrossBorderMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:33:31+00:00</t>
+    <t>2021-11-22T16:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-CrossBorderMedicationDispense.xlsx
+++ b/branches/master/StructureDefinition-CrossBorderMedicationDispense.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$47</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:35:05+00:00</t>
+    <t>2021-11-23T10:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,10 +439,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>RelatedMedication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/RelatedMedication}
+    <t>relatedMedication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/relatedMedication}
 </t>
   </si>
   <si>
@@ -1305,6 +1308,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1495,7 +1513,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1658,7 +1676,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1884,7 +1902,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -1996,7 +2014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2110,7 +2128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2224,7 +2242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2452,7 +2470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2580,7 +2598,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2676,7 +2694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
@@ -2906,7 +2924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>157</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>163</v>
       </c>
@@ -3132,7 +3150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>174</v>
       </c>
@@ -3244,7 +3262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>183</v>
       </c>
@@ -3358,7 +3376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>191</v>
       </c>
@@ -3472,7 +3490,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
@@ -3586,7 +3604,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>212</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>218</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>224</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -4034,7 +4052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>235</v>
       </c>
@@ -4148,7 +4166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>239</v>
       </c>
@@ -4264,7 +4282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>244</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>251</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>257</v>
       </c>
@@ -4602,7 +4620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>262</v>
       </c>
@@ -4716,7 +4734,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>271</v>
       </c>
@@ -4828,7 +4846,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>278</v>
       </c>
@@ -4940,7 +4958,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>285</v>
       </c>
@@ -5052,7 +5070,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>290</v>
       </c>
@@ -5164,7 +5182,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>297</v>
       </c>
@@ -5276,7 +5294,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>302</v>
       </c>
@@ -5388,7 +5406,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>308</v>
       </c>
@@ -5500,7 +5518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>314</v>
       </c>
@@ -5612,7 +5630,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>321</v>
       </c>
@@ -5726,7 +5744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>327</v>
       </c>
@@ -5838,7 +5856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>332</v>
       </c>
@@ -5950,7 +5968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>333</v>
       </c>
@@ -6064,7 +6082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>334</v>
       </c>
@@ -6180,7 +6198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>335</v>
       </c>
@@ -6292,7 +6310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>340</v>
       </c>
@@ -6404,7 +6422,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>347</v>
       </c>
@@ -6516,7 +6534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>354</v>
       </c>
@@ -6628,7 +6646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>360</v>
       </c>
@@ -6742,7 +6760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>367</v>
       </c>
@@ -6857,6 +6875,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN47">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI46">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>